--- a/iselUssSyncV2/OutputWSL/20220428_1403_D50L474W90Q40.0U0.47H107G2_C_WSL.xlsx
+++ b/iselUssSyncV2/OutputWSL/20220428_1403_D50L474W90Q40.0U0.47H107G2_C_WSL.xlsx
@@ -122,10 +122,10 @@
         <v>50</v>
       </c>
       <c r="E2" s="0">
-        <v>107.3006719367589</v>
+        <v>107.30160270377985</v>
       </c>
       <c r="F2" s="0">
-        <v>107.5501581027668</v>
+        <v>107.55108886978778</v>
       </c>
     </row>
     <row r="3">
@@ -142,10 +142,10 @@
         <v>50</v>
       </c>
       <c r="E3" s="0">
-        <v>107.64238095238096</v>
+        <v>107.64465616065443</v>
       </c>
       <c r="F3" s="0">
-        <v>109.03857142857146</v>
+        <v>109.04084663684495</v>
       </c>
     </row>
     <row r="4">
@@ -162,10 +162,10 @@
         <v>50</v>
       </c>
       <c r="E4" s="0">
-        <v>106.37264822134389</v>
+        <v>106.37539915498361</v>
       </c>
       <c r="F4" s="0">
-        <v>111.12762845849801</v>
+        <v>111.1303793921378</v>
       </c>
     </row>
     <row r="5">
@@ -182,10 +182,10 @@
         <v>50</v>
       </c>
       <c r="E5" s="0">
-        <v>105.42083665338644</v>
+        <v>105.42364274359041</v>
       </c>
       <c r="F5" s="0">
-        <v>111.85864541832672</v>
+        <v>111.86145150853066</v>
       </c>
     </row>
     <row r="6">
@@ -202,7 +202,7 @@
         <v>50</v>
       </c>
       <c r="E6" s="0">
-        <v>104.03434262948211</v>
+        <v>104.03719698167973</v>
       </c>
       <c r="F6" s="0"/>
     </row>
@@ -220,10 +220,10 @@
         <v>50</v>
       </c>
       <c r="E7" s="0">
-        <v>101.10126984126985</v>
+        <v>101.10416556089062</v>
       </c>
       <c r="F7" s="0">
-        <v>111.13809523809518</v>
+        <v>111.140990957716</v>
       </c>
     </row>
     <row r="8">
@@ -240,10 +240,10 @@
         <v>50</v>
       </c>
       <c r="E8" s="0">
-        <v>96.291031746031763</v>
+        <v>96.29396193850522</v>
       </c>
       <c r="F8" s="0">
-        <v>105.07388888888887</v>
+        <v>105.07681908136232</v>
       </c>
     </row>
     <row r="9">
@@ -260,10 +260,10 @@
         <v>50</v>
       </c>
       <c r="E9" s="0">
-        <v>93.727888446215147</v>
+        <v>93.730830497349871</v>
       </c>
       <c r="F9" s="0">
-        <v>96.501155378486047</v>
+        <v>96.504097429620799</v>
       </c>
     </row>
     <row r="10">
@@ -280,7 +280,7 @@
         <v>50</v>
       </c>
       <c r="E10" s="0">
-        <v>90.780992063492036</v>
+        <v>90.783944870156802</v>
       </c>
       <c r="F10" s="0"/>
     </row>
@@ -298,7 +298,7 @@
         <v>50</v>
       </c>
       <c r="E11" s="0">
-        <v>87.153769841269849</v>
+        <v>87.15673230033336</v>
       </c>
       <c r="F11" s="0"/>
     </row>
@@ -316,7 +316,7 @@
         <v>50</v>
       </c>
       <c r="E12" s="0">
-        <v>85.461035856573702</v>
+        <v>85.464002728162342</v>
       </c>
       <c r="F12" s="0"/>
     </row>
@@ -334,7 +334,7 @@
         <v>50</v>
       </c>
       <c r="E13" s="0">
-        <v>83.836071428571415</v>
+        <v>83.839042436902346</v>
       </c>
       <c r="F13" s="0"/>
     </row>
@@ -352,7 +352,7 @@
         <v>50</v>
       </c>
       <c r="E14" s="0">
-        <v>82.076215139442226</v>
+        <v>82.079190008732681</v>
       </c>
       <c r="F14" s="0"/>
     </row>
@@ -370,7 +370,7 @@
         <v>50</v>
       </c>
       <c r="E15" s="0">
-        <v>80.12051587301589</v>
+        <v>80.123494327482987</v>
       </c>
       <c r="F15" s="0"/>
     </row>
@@ -388,7 +388,7 @@
         <v>50</v>
       </c>
       <c r="E16" s="0">
-        <v>76.500836653386486</v>
+        <v>76.503821450858467</v>
       </c>
       <c r="F16" s="0"/>
     </row>
@@ -406,10 +406,10 @@
         <v>50</v>
       </c>
       <c r="E17" s="0">
-        <v>72.908685258964155</v>
+        <v>72.911675296309738</v>
       </c>
       <c r="F17" s="0">
-        <v>40.311553784860564</v>
+        <v>40.314543822206154</v>
       </c>
     </row>
     <row r="18">
@@ -426,10 +426,10 @@
         <v>50</v>
       </c>
       <c r="E18" s="0">
-        <v>69.739760956175303</v>
+        <v>69.742755130263177</v>
       </c>
       <c r="F18" s="0">
-        <v>39.561115537848607</v>
+        <v>39.56410971193651</v>
       </c>
     </row>
     <row r="19">
@@ -446,10 +446,10 @@
         <v>50</v>
       </c>
       <c r="E19" s="0">
-        <v>63.638730158730162</v>
+        <v>63.641729296908842</v>
       </c>
       <c r="F19" s="0">
-        <v>37.930238095238096</v>
+        <v>37.933237233416783</v>
       </c>
     </row>
     <row r="20">
@@ -466,10 +466,10 @@
         <v>50</v>
       </c>
       <c r="E20" s="0">
-        <v>57.085555555555558</v>
+        <v>57.088554693734238</v>
       </c>
       <c r="F20" s="0">
-        <v>40.28599206349206</v>
+        <v>40.288991201670754</v>
       </c>
     </row>
     <row r="21">
@@ -486,10 +486,10 @@
         <v>50</v>
       </c>
       <c r="E21" s="0">
-        <v>51.621269841269829</v>
+        <v>51.624262084877991</v>
       </c>
       <c r="F21" s="0">
-        <v>44.915317460317461</v>
+        <v>44.91830970392563</v>
       </c>
     </row>
     <row r="22">
@@ -506,10 +506,10 @@
         <v>50</v>
       </c>
       <c r="E22" s="0">
-        <v>47.173968253968248</v>
+        <v>47.176946708435359</v>
       </c>
       <c r="F22" s="0">
-        <v>54.121904761904766</v>
+        <v>54.124883216371856</v>
       </c>
     </row>
     <row r="23">
@@ -526,10 +526,10 @@
         <v>50</v>
       </c>
       <c r="E23" s="0">
-        <v>44.016150793650795</v>
+        <v>44.019108564406324</v>
       </c>
       <c r="F23" s="0">
-        <v>65.504126984126984</v>
+        <v>65.507084754882513</v>
       </c>
     </row>
     <row r="24">
@@ -546,10 +546,10 @@
         <v>50</v>
       </c>
       <c r="E24" s="0">
-        <v>40.364860557768921</v>
+        <v>40.367756277389717</v>
       </c>
       <c r="F24" s="0">
-        <v>79.487051792828694</v>
+        <v>79.48994751244949</v>
       </c>
     </row>
     <row r="25">
@@ -566,10 +566,10 @@
         <v>50</v>
       </c>
       <c r="E25" s="0">
-        <v>42.352948207171316</v>
+        <v>42.355754297375292</v>
       </c>
       <c r="F25" s="0">
-        <v>65.895776892430277</v>
+        <v>65.898582982634252</v>
       </c>
     </row>
     <row r="26">
@@ -586,10 +586,10 @@
         <v>50</v>
       </c>
       <c r="E26" s="0">
-        <v>56.708015873015867</v>
+        <v>56.710704755520894</v>
       </c>
       <c r="F26" s="0">
-        <v>53.729404761904767</v>
+        <v>53.732093644409794</v>
       </c>
     </row>
     <row r="27">
@@ -606,10 +606,10 @@
         <v>50</v>
       </c>
       <c r="E27" s="0">
-        <v>83.031269841269847</v>
+        <v>83.033813937793823</v>
       </c>
       <c r="F27" s="0">
-        <v>53.868293650793653</v>
+        <v>53.870837747317637</v>
       </c>
     </row>
     <row r="28">
@@ -626,10 +626,10 @@
         <v>50</v>
       </c>
       <c r="E28" s="0">
-        <v>69.240396825396815</v>
+        <v>69.242768557657669</v>
       </c>
       <c r="F28" s="0">
-        <v>56.75099206349207</v>
+        <v>56.753363795752904</v>
       </c>
     </row>
     <row r="29">
@@ -646,10 +646,10 @@
         <v>50</v>
       </c>
       <c r="E29" s="0">
-        <v>51.040079681274904</v>
+        <v>51.0422514709905</v>
       </c>
       <c r="F29" s="0">
-        <v>69.631713147410366</v>
+        <v>69.633884937125941</v>
       </c>
     </row>
     <row r="30">
@@ -666,10 +666,10 @@
         <v>50</v>
       </c>
       <c r="E30" s="0">
-        <v>84.227808764940235</v>
+        <v>84.229497934719049</v>
       </c>
       <c r="F30" s="0">
-        <v>67.812709163346611</v>
+        <v>67.814398333125396</v>
       </c>
     </row>
   </sheetData>
